--- a/config/standard_deviation.xlsx
+++ b/config/standard_deviation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.6049715400231</v>
+        <v>102.6289235554718</v>
       </c>
       <c r="C2" t="n">
-        <v>29.22003906359807</v>
+        <v>29.1935045565615</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01519397876947204</v>
+        <v>0.01527241592094906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9422848306121085</v>
+        <v>0.9422758556072726</v>
       </c>
     </row>
   </sheetData>

--- a/config/standard_deviation.xlsx
+++ b/config/standard_deviation.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.6289235554718</v>
+        <v>102.6555219230948</v>
       </c>
       <c r="C2" t="n">
-        <v>29.1935045565615</v>
+        <v>29.076231904243</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01527241592094906</v>
+        <v>0.01516621626479492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9422758556072726</v>
+        <v>0.943547615387623</v>
       </c>
     </row>
   </sheetData>
